--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H2">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I2">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J2">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N2">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O2">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P2">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q2">
-        <v>0.02287816329955556</v>
+        <v>0.08018054812977778</v>
       </c>
       <c r="R2">
-        <v>0.205903469696</v>
+        <v>0.7216249331679999</v>
       </c>
       <c r="S2">
-        <v>0.0001063738483002691</v>
+        <v>0.003951983362599093</v>
       </c>
       <c r="T2">
-        <v>0.0001063738483002691</v>
+        <v>0.003951983362599091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H3">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I3">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J3">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.02585</v>
       </c>
       <c r="O3">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P3">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q3">
-        <v>0.01066431984444444</v>
+        <v>0.01399590231111111</v>
       </c>
       <c r="R3">
-        <v>0.0959788786</v>
+        <v>0.1259631208</v>
       </c>
       <c r="S3">
-        <v>4.958460723027185E-05</v>
+        <v>0.0006898378019135974</v>
       </c>
       <c r="T3">
-        <v>4.958460723027187E-05</v>
+        <v>0.0006898378019135973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H4">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I4">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J4">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N4">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O4">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P4">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q4">
-        <v>8.329979851916445</v>
+        <v>1.642772959116444</v>
       </c>
       <c r="R4">
-        <v>74.96981866724801</v>
+        <v>14.784956632048</v>
       </c>
       <c r="S4">
-        <v>0.03873090691372378</v>
+        <v>0.0809699054744272</v>
       </c>
       <c r="T4">
-        <v>0.03873090691372379</v>
+        <v>0.08096990547442717</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>10.933347</v>
       </c>
       <c r="I5">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J5">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N5">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O5">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P5">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q5">
-        <v>0.06736885458133335</v>
+        <v>0.1799033656196667</v>
       </c>
       <c r="R5">
-        <v>0.6063196912320001</v>
+        <v>1.619130290577</v>
       </c>
       <c r="S5">
-        <v>0.000313236872364525</v>
+        <v>0.008867176944883712</v>
       </c>
       <c r="T5">
-        <v>0.000313236872364525</v>
+        <v>0.008867176944883712</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>10.933347</v>
       </c>
       <c r="I6">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J6">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>0.02585</v>
       </c>
       <c r="O6">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P6">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q6">
         <v>0.03140300221666667</v>
@@ -827,10 +827,10 @@
         <v>0.2826270199500001</v>
       </c>
       <c r="S6">
-        <v>0.0001460107680074829</v>
+        <v>0.001547808604339521</v>
       </c>
       <c r="T6">
-        <v>0.0001460107680074829</v>
+        <v>0.001547808604339521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>10.933347</v>
       </c>
       <c r="I7">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J7">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N7">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O7">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P7">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q7">
-        <v>24.52911949099067</v>
+        <v>3.685936192599666</v>
       </c>
       <c r="R7">
-        <v>220.7620754189161</v>
+        <v>33.173425733397</v>
       </c>
       <c r="S7">
-        <v>0.1140501010290675</v>
+        <v>0.1816744690392789</v>
       </c>
       <c r="T7">
-        <v>0.1140501010290675</v>
+        <v>0.1816744690392789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H8">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I8">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J8">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N8">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O8">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P8">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q8">
-        <v>0.03089815456355556</v>
+        <v>0.1353341121688889</v>
       </c>
       <c r="R8">
-        <v>0.2780833910720001</v>
+        <v>1.21800700952</v>
       </c>
       <c r="S8">
-        <v>0.0001436634385053881</v>
+        <v>0.006670422841434005</v>
       </c>
       <c r="T8">
-        <v>0.0001436634385053881</v>
+        <v>0.006670422841434005</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H9">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I9">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J9">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.02585</v>
       </c>
       <c r="O9">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P9">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q9">
-        <v>0.01440272099444445</v>
+        <v>0.02362322355555556</v>
       </c>
       <c r="R9">
-        <v>0.12962448895</v>
+        <v>0.212609012</v>
       </c>
       <c r="S9">
-        <v>6.696660208749788E-05</v>
+        <v>0.001164354555314428</v>
       </c>
       <c r="T9">
-        <v>6.69666020874979E-05</v>
+        <v>0.001164354555314428</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H10">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I10">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J10">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N10">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O10">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P10">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q10">
-        <v>11.25007290164845</v>
+        <v>2.772782490302221</v>
       </c>
       <c r="R10">
-        <v>101.250656114836</v>
+        <v>24.95504241271999</v>
       </c>
       <c r="S10">
-        <v>0.05230811287329907</v>
+        <v>0.1366664424898193</v>
       </c>
       <c r="T10">
-        <v>0.05230811287329907</v>
+        <v>0.1366664424898192</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H11">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I11">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J11">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N11">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O11">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P11">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q11">
-        <v>0.3388106071075556</v>
+        <v>0.1157217628566667</v>
       </c>
       <c r="R11">
-        <v>3.049295463968</v>
+        <v>1.04149586571</v>
       </c>
       <c r="S11">
-        <v>0.001575326989806098</v>
+        <v>0.005703758482169058</v>
       </c>
       <c r="T11">
-        <v>0.001575326989806098</v>
+        <v>0.005703758482169057</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H12">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I12">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J12">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.02585</v>
       </c>
       <c r="O12">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P12">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q12">
-        <v>0.1579315888944444</v>
+        <v>0.02019979316666666</v>
       </c>
       <c r="R12">
-        <v>1.42138430005</v>
+        <v>0.1817981385</v>
       </c>
       <c r="S12">
-        <v>0.0007343155418076965</v>
+        <v>0.000995618618039382</v>
       </c>
       <c r="T12">
-        <v>0.0007343155418076966</v>
+        <v>0.000995618618039382</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H13">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I13">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J13">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N13">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O13">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P13">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q13">
-        <v>123.3615432265205</v>
+        <v>2.370956388256666</v>
       </c>
       <c r="R13">
-        <v>1110.253889038684</v>
+        <v>21.33860749431</v>
       </c>
       <c r="S13">
-        <v>0.5735793522166135</v>
+        <v>0.1168610145277682</v>
       </c>
       <c r="T13">
-        <v>0.5735793522166135</v>
+        <v>0.1168610145277682</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H14">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I14">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J14">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N14">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O14">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P14">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q14">
-        <v>0.08573191975822224</v>
+        <v>0.2114016302283333</v>
       </c>
       <c r="R14">
-        <v>0.7715872778240001</v>
+        <v>1.902614672055</v>
       </c>
       <c r="S14">
-        <v>0.0003986174111725628</v>
+        <v>0.01041968089487809</v>
       </c>
       <c r="T14">
-        <v>0.0003986174111725628</v>
+        <v>0.01041968089487809</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H15">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I15">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J15">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.02585</v>
       </c>
       <c r="O15">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P15">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q15">
-        <v>0.03996267537777778</v>
+        <v>0.03690117658333333</v>
       </c>
       <c r="R15">
-        <v>0.3596640784</v>
+        <v>0.33211058925</v>
       </c>
       <c r="S15">
-        <v>0.0001858096523155429</v>
+        <v>0.001818805674433954</v>
       </c>
       <c r="T15">
-        <v>0.0001858096523155429</v>
+        <v>0.001818805674433954</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H16">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I16">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J16">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N16">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O16">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P16">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q16">
-        <v>31.21514410494578</v>
+        <v>4.331285950928332</v>
       </c>
       <c r="R16">
-        <v>280.936296944512</v>
+        <v>38.98157355835499</v>
       </c>
       <c r="S16">
-        <v>0.145137306706568</v>
+        <v>0.213482826146594</v>
       </c>
       <c r="T16">
-        <v>0.145137306706568</v>
+        <v>0.2134828261465939</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H17">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I17">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J17">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N17">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O17">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P17">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q17">
-        <v>0.0426385409848889</v>
+        <v>0.2140189247441111</v>
       </c>
       <c r="R17">
-        <v>0.383746868864</v>
+        <v>1.926170322697</v>
       </c>
       <c r="S17">
-        <v>0.0001982513032660926</v>
+        <v>0.01054868355977175</v>
       </c>
       <c r="T17">
-        <v>0.0001982513032660926</v>
+        <v>0.01054868355977175</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H18">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I18">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J18">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.02585</v>
       </c>
       <c r="O18">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P18">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q18">
-        <v>0.01987532971111111</v>
+        <v>0.03735803799444445</v>
       </c>
       <c r="R18">
-        <v>0.1788779674</v>
+        <v>0.33622234195</v>
       </c>
       <c r="S18">
-        <v>9.241193359471458E-05</v>
+        <v>0.001841323713258063</v>
       </c>
       <c r="T18">
-        <v>9.241193359471459E-05</v>
+        <v>0.001841323713258063</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H19">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I19">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J19">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N19">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O19">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P19">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q19">
-        <v>15.52476842955911</v>
+        <v>4.384910187190777</v>
       </c>
       <c r="R19">
-        <v>139.722915866032</v>
+        <v>39.46419168471699</v>
       </c>
       <c r="S19">
-        <v>0.07218365129227002</v>
+        <v>0.2161258872690779</v>
       </c>
       <c r="T19">
-        <v>0.07218365129227002</v>
+        <v>0.2161258872690779</v>
       </c>
     </row>
   </sheetData>
